--- a/assets/templates/template_data_ekstrakurikuler.xlsx
+++ b/assets/templates/template_data_ekstrakurikuler.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data Aplikasi\xampp\htdocs\Raport\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D5E0B1-B183-48D0-A039-9E5F6E6A3C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FAA0E5-D942-4BB5-9A92-17CF5816F3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C101653E-4FA5-4169-BB12-46CEE36E4AE0}"/>
   </bookViews>
@@ -112,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -124,7 +124,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,13 +446,13 @@
   <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
